--- a/DRGsubtype_subtype-injury_generegulation_DEGs.xlsx
+++ b/DRGsubtype_subtype-injury_generegulation_DEGs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">baseMean</t>
   </si>
@@ -41,181 +41,361 @@
     <t xml:space="preserve">symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">gene_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim15</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000050747</t>
+  </si>
+  <si>
     <t xml:space="preserve">Satb2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038331</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim14</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000039853</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bcl11b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000048251</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tcf19</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000050410</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zbtb7b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000028042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp646</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000049739</t>
+  </si>
+  <si>
     <t xml:space="preserve">Plagl1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000019817</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulk1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000029512</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim27</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000021326</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ngfr</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000120</t>
+  </si>
+  <si>
     <t xml:space="preserve">Six1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000051367</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahr</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000019256</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mcph1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000039842</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prdm10</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000042496</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chd6</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000057133</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aco1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000028405</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ncoa6</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038369</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pcbp3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000001120</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxa9</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038227</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tug1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000056579</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dnm1l</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000022789</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pcbp1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000051695</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cdk4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000006728</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il10</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000016529</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aff2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000031189</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rom1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000071648</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prdm4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000035529</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim68</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000073968</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nkapl</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000059395</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxd9</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000043342</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shh</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000002633</t>
+  </si>
+  <si>
     <t xml:space="preserve">Igf2bp2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000033581</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prdm9</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000051977</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp142</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000026135</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prdm12</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000079466</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atp7a</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000033792</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isl1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000042258</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cdh1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000303</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ankra2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000021661</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kmt2c</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038056</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lmx1b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038765</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cdk6</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000040274</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aplnr</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000044338</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trem2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000023992</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tgfb1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000002603</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim34b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000090215</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cdkn2a</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000044303</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hrg</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000022877</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim30a</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000030921</t>
+  </si>
+  <si>
     <t xml:space="preserve">Igf2bp3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000029814</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myb</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000019982</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpk2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032845</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dnmt3l</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000730</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim40</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000073399</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fgf4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000050917</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nfe2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000058794</t>
+  </si>
+  <si>
     <t xml:space="preserve">Il2rg</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000031304</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trim38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSMUSG00000064140</t>
   </si>
 </sst>
 </file>
@@ -566,6 +746,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -584,7 +767,10 @@
         <v>0.000000441728141096064</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +790,10 @@
         <v>0.0217290369002597</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -624,7 +813,10 @@
         <v>0.00000000137568205198995</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -644,7 +836,10 @@
         <v>0.000146094345660206</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +859,10 @@
         <v>0.000616661136614648</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +882,10 @@
         <v>0.0000105857224664246</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +905,10 @@
         <v>0.000200818564696888</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -724,7 +928,10 @@
         <v>0.000275254072562295</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -744,7 +951,10 @@
         <v>0.000115911482543281</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +974,10 @@
         <v>0.000477131133046057</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -784,7 +997,10 @@
         <v>0.00072268796272968</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -804,7 +1020,10 @@
         <v>0.000287317829468618</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +1043,10 @@
         <v>0.0288527426184697</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -844,7 +1066,10 @@
         <v>0.00255382678064379</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -864,7 +1089,10 @@
         <v>0.00890824779614903</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -884,7 +1112,10 @@
         <v>0.0018000173078832</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -904,7 +1135,10 @@
         <v>0.00445375070920876</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -924,7 +1158,10 @@
         <v>0.0198010319426219</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -944,7 +1181,10 @@
         <v>0.0213018798802825</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -964,7 +1204,10 @@
         <v>0.000329335007327685</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -984,7 +1227,10 @@
         <v>0.0237641738880074</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1004,7 +1250,10 @@
         <v>0.00953423561454246</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -1024,7 +1273,10 @@
         <v>0.037483516853211</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1044,7 +1296,10 @@
         <v>0.0453589109520922</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -1064,7 +1319,10 @@
         <v>0.0093578597893657</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1100,6 +1358,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1118,7 +1379,10 @@
         <v>0.0206347096815563</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1138,7 +1402,10 @@
         <v>0.0256133436138866</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>117</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -1158,7 +1425,10 @@
         <v>0.00243176040564636</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -1178,7 +1448,10 @@
         <v>0.0000000000000000000000000000000000000000000000000000134585766330581</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -1198,7 +1471,10 @@
         <v>0.0233488155867582</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>121</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1218,7 +1494,10 @@
         <v>0.0263653947551713</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="G7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1238,7 +1517,10 @@
         <v>0.0000739937801559702</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1258,7 +1540,10 @@
         <v>0.0250497805531242</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -1278,7 +1563,10 @@
         <v>0.0312677884446099</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1586,10 @@
         <v>0.0031067077812979</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1334,6 +1625,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,6 +1662,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1386,7 +1683,10 @@
         <v>0.00000000000335296121555019</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -1406,7 +1706,10 @@
         <v>0.000000000000404982043027181</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1426,7 +1729,10 @@
         <v>0.00000000000000808711402559536</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1446,7 +1752,10 @@
         <v>0.000000413277812721574</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1466,7 +1775,10 @@
         <v>0.0000326265499240825</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
@@ -1486,7 +1798,10 @@
         <v>0.00000000119778469023866</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1506,7 +1821,10 @@
         <v>0.000000931458328140048</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1526,7 +1844,10 @@
         <v>0.0000268026199618498</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -1546,7 +1867,10 @@
         <v>0.0000153355712490948</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1566,7 +1890,10 @@
         <v>0.00000730875473997621</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -1586,7 +1913,10 @@
         <v>0.00410022422008393</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -1606,7 +1936,10 @@
         <v>0.00743383310292841</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -1626,7 +1959,10 @@
         <v>0.0032360246282939</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -1646,7 +1982,10 @@
         <v>0.00407372643817008</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1666,7 +2005,10 @@
         <v>0.00244348266081252</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1686,7 +2028,10 @@
         <v>0.00157780836484162</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18">
@@ -1706,7 +2051,10 @@
         <v>0.00104073500907834</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -1726,7 +2074,10 @@
         <v>0.000271465718211626</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1746,7 +2097,10 @@
         <v>0.0101305363863884</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1766,7 +2120,10 @@
         <v>0.00877854142254162</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1786,7 +2143,10 @@
         <v>0.0433974569812744</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -1806,7 +2166,10 @@
         <v>0.00144031490350178</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -1826,7 +2189,10 @@
         <v>0.0164533861044294</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1846,7 +2212,10 @@
         <v>0.0479010582717576</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="G25" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -1866,7 +2235,10 @@
         <v>0.0087788226877227</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -1886,7 +2258,10 @@
         <v>0.0299497332692445</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -1906,7 +2281,10 @@
         <v>0.0451475894108559</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1942,6 +2320,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1960,7 +2341,10 @@
         <v>0.0259479153642441</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -1980,7 +2364,10 @@
         <v>0.00000000067694206054637</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -2000,7 +2387,10 @@
         <v>0.0000955535585443119</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2036,6 +2426,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2054,7 +2447,10 @@
         <v>0.00085813067022142</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -2074,7 +2470,10 @@
         <v>0.0394272525178978</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -2094,7 +2493,10 @@
         <v>0.00342745258623636</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2130,6 +2532,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2148,7 +2553,10 @@
         <v>0.00185536871368421</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -2168,7 +2576,10 @@
         <v>0.000000857658438357653</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -2188,7 +2599,10 @@
         <v>0.00370155384598381</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2224,6 +2638,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2242,7 +2659,10 @@
         <v>0.00154135760650121</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2262,7 +2682,10 @@
         <v>0.0000117989151798842</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -2282,7 +2705,10 @@
         <v>0.000000000000000000000000000000000000000000000000000000000000000894806658203443</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -2302,7 +2728,10 @@
         <v>0.0136683229647658</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2338,6 +2767,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2356,7 +2788,10 @@
         <v>0.0000516361086227099</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2392,6 +2827,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2410,7 +2848,10 @@
         <v>0.0118153849400816</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>105</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -2430,7 +2871,10 @@
         <v>0.00965987378681919</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -2450,7 +2894,10 @@
         <v>0.0345753171692912</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -2470,7 +2917,10 @@
         <v>0.0309837889199862</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -2490,7 +2940,10 @@
         <v>0.0223232774742645</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -2510,7 +2963,10 @@
         <v>0.0108998758996357</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -2530,7 +2986,10 @@
         <v>0.0295926878201794</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -2550,7 +3009,10 @@
         <v>0.0127486567810024</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2570,7 +3032,10 @@
         <v>0.0000000000000000000000000346578754626881</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2590,7 +3055,10 @@
         <v>0.00170280442853422</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2610,7 +3078,10 @@
         <v>0.00714996973556567</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
